--- a/data/donnees_MABEL2_2023-07-24.xlsx
+++ b/data/donnees_MABEL2_2023-07-24.xlsx
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-677515101.49</v>
+        <v>-697966766.29</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>155896719.49</v>
@@ -672,7 +672,7 @@
         <v>518030544.84</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>83628449.89</v>
+        <v>63176785.09</v>
       </c>
     </row>
     <row r="7">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-1082297.49</v>
+        <v>-2483997.49</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>2045042.69</v>
@@ -777,7 +777,7 @@
         <v>9537299.76</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>11848349.08</v>
+        <v>10446649.08</v>
       </c>
     </row>
     <row r="10">
@@ -1777,7 +1777,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>14243457.36</v>
+        <v>10307942.16</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>14373867.84</v>
@@ -1792,7 +1792,7 @@
         <v>26088355.2</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>54705680.4</v>
+        <v>50770165.2</v>
       </c>
     </row>
     <row r="39">
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>-21451.37</v>
+        <v>-973806.17</v>
       </c>
       <c r="E126" s="2" t="n">
         <v>2232522.96</v>
@@ -4872,7 +4872,7 @@
         <v>0</v>
       </c>
       <c r="I126" s="2" t="n">
-        <v>2868054</v>
+        <v>1915699.2</v>
       </c>
     </row>
     <row r="127">
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>-9048975.199999999</v>
+        <v>-14860329.2</v>
       </c>
       <c r="E136" s="2" t="n">
         <v>13354839.58</v>
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="I136" s="2" t="n">
-        <v>6707678.78</v>
+        <v>896324.78</v>
       </c>
     </row>
     <row r="137">
@@ -8889,7 +8889,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>403915971.82</v>
+        <v>389725971.82</v>
       </c>
       <c r="E91" s="2" t="n">
         <v>-146820000</v>
@@ -8904,7 +8904,7 @@
         <v>-1524274974.92</v>
       </c>
       <c r="I91" s="2" t="n">
-        <v>-1580757353.1</v>
+        <v>-1594947353.1</v>
       </c>
     </row>
     <row r="92">
@@ -9309,7 +9309,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>1608000</v>
+        <v>804000</v>
       </c>
       <c r="E103" s="2" t="n">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>-1608000</v>
       </c>
       <c r="I103" s="2" t="n">
-        <v>0</v>
+        <v>-804000</v>
       </c>
     </row>
     <row r="104">

--- a/data/donnees_MABEL2_2023-07-24.xlsx
+++ b/data/donnees_MABEL2_2023-07-24.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I149"/>
+  <dimension ref="A1:I150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-45147417.89</v>
+        <v>-43865117.89</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>40333277.19</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>-2322583.29</v>
+        <v>-1040283.29</v>
       </c>
     </row>
     <row r="13">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-30260500</v>
+        <v>-18537400</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>12292500</v>
@@ -1407,7 +1407,7 @@
         <v>23002600</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>-17720500</v>
+        <v>-5997400</v>
       </c>
     </row>
     <row r="28">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>-14043800</v>
+        <v>-22589300</v>
       </c>
       <c r="E55" s="2" t="n">
         <v>3630000</v>
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>-5316800</v>
+        <v>-13862300</v>
       </c>
     </row>
     <row r="56">
@@ -2617,7 +2617,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>-514800</v>
+        <v>-487500</v>
       </c>
       <c r="E62" s="2" t="n">
         <v>0</v>
@@ -2632,7 +2632,7 @@
         <v>7135800</v>
       </c>
       <c r="I62" s="2" t="n">
-        <v>-267300</v>
+        <v>-240000</v>
       </c>
     </row>
     <row r="63">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>-46054532</v>
+        <v>-28132732</v>
       </c>
       <c r="E75" s="2" t="n">
         <v>9022875</v>
@@ -3087,7 +3087,7 @@
         <v>195708232</v>
       </c>
       <c r="I75" s="2" t="n">
-        <v>15737600</v>
+        <v>33659400</v>
       </c>
     </row>
     <row r="76">
@@ -3877,7 +3877,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>0</v>
+        <v>24001700</v>
       </c>
       <c r="E98" s="2" t="n">
         <v>0</v>
@@ -3892,7 +3892,7 @@
         <v>6547700</v>
       </c>
       <c r="I98" s="2" t="n">
-        <v>0</v>
+        <v>24001700</v>
       </c>
     </row>
     <row r="99">
@@ -5678,6 +5678,41 @@
       </c>
       <c r="I149" s="2" t="n">
         <v>483730.8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>Client</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="inlineStr">
+        <is>
+          <t>C22166</t>
+        </is>
+      </c>
+      <c r="C150" s="2" t="inlineStr">
+        <is>
+          <t>RANAIVOARINIRINA MBOLATAHINA</t>
+        </is>
+      </c>
+      <c r="D150" s="2" t="n">
+        <v>26094900</v>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F150" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G150" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" s="2" t="n">
+        <v>26094900</v>
       </c>
     </row>
   </sheetData>
@@ -5774,13 +5809,13 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>553515299.84</v>
+        <v>460155099.84</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>-469668500</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-138531000</v>
+        <v>-143458100</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>-36074100</v>
@@ -5789,7 +5824,7 @@
         <v>-2450072103.84</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>-2540830404</v>
+        <v>-2639117704</v>
       </c>
     </row>
     <row r="3">
@@ -6194,7 +6229,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>2873364</v>
+        <v>16969864</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>0</v>
@@ -6209,7 +6244,7 @@
         <v>-5812258</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>-2938894</v>
+        <v>11157606</v>
       </c>
     </row>
     <row r="15">
@@ -8889,13 +8924,13 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>389725971.82</v>
+        <v>292415971.82</v>
       </c>
       <c r="E91" s="2" t="n">
         <v>-146820000</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>-106095000</v>
+        <v>-122595000</v>
       </c>
       <c r="G91" s="2" t="n">
         <v>-207483350</v>
@@ -8904,7 +8939,7 @@
         <v>-1524274974.92</v>
       </c>
       <c r="I91" s="2" t="n">
-        <v>-1594947353.1</v>
+        <v>-1708757353.1</v>
       </c>
     </row>
     <row r="92">
@@ -11759,7 +11794,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>-2500000</v>
+        <v>-4218120.53</v>
       </c>
       <c r="E173" s="2" t="n">
         <v>0</v>
@@ -11774,7 +11809,7 @@
         <v>0</v>
       </c>
       <c r="I173" s="2" t="n">
-        <v>-2500000</v>
+        <v>-4218120.53</v>
       </c>
     </row>
     <row r="174">
@@ -12529,7 +12564,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>-487000</v>
+        <v>-621000</v>
       </c>
       <c r="E195" s="2" t="n">
         <v>0</v>
@@ -12544,7 +12579,7 @@
         <v>0</v>
       </c>
       <c r="I195" s="2" t="n">
-        <v>-487000</v>
+        <v>-621000</v>
       </c>
     </row>
     <row r="196">
